--- a/Data/Kanaleneiland/df_families.xlsx
+++ b/Data/Kanaleneiland/df_families.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F175"/>
+  <dimension ref="A1:F172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +488,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>W448331227</t>
+          <t>W268729985</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>W267148657</t>
+          <t>W268730141</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -552,12 +552,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>W267148388</t>
+          <t>W267152500</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>building_apartments</t>
+          <t>building_house</t>
         </is>
       </c>
     </row>
@@ -584,12 +584,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>W298413658</t>
+          <t>W267152003</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>building_apartments</t>
+          <t>building_house</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['citizen_11', 'citizen_12', 'citizen_13', 'citizen_14']</t>
+          <t>['citizen_11', 'citizen_12', 'citizen_13', 'citizen_14', 'citizen_15']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>W267151017</t>
+          <t>W268730507</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -643,12 +643,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['citizen_15', 'citizen_16']</t>
+          <t>['citizen_16', 'citizen_17']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>W267149129</t>
+          <t>W298413777</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -675,12 +675,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['citizen_17', 'citizen_18', 'citizen_19', 'citizen_20', 'citizen_21']</t>
+          <t>['citizen_18', 'citizen_19', 'citizen_20', 'citizen_21', 'citizen_22']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>W268730626</t>
+          <t>W268730219</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -707,12 +707,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['citizen_22', 'citizen_23']</t>
+          <t>['citizen_23', 'citizen_24']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>W267152422</t>
+          <t>W298413884</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -739,12 +739,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>['citizen_24', 'citizen_25', 'citizen_26', 'citizen_27']</t>
+          <t>['citizen_25', 'citizen_26', 'citizen_27', 'citizen_28']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>W268729957</t>
+          <t>W267149063</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -771,17 +771,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>['citizen_28']</t>
+          <t>['citizen_29']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>W268730414</t>
+          <t>W267148465</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>building_house</t>
+          <t>building_apartments</t>
         </is>
       </c>
     </row>
@@ -803,12 +803,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>['citizen_29', 'citizen_30', 'citizen_31', 'citizen_32']</t>
+          <t>['citizen_30', 'citizen_31', 'citizen_32', 'citizen_33']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>W267150903</t>
+          <t>W819563706</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -835,12 +835,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>['citizen_33', 'citizen_34']</t>
+          <t>['citizen_34', 'citizen_35']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>W268730241</t>
+          <t>W268730477</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -867,12 +867,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>['citizen_35', 'citizen_36', 'citizen_37', 'citizen_38']</t>
+          <t>['citizen_36', 'citizen_37', 'citizen_38', 'citizen_39']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>W267151975</t>
+          <t>W268730295</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -899,12 +899,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>['citizen_39']</t>
+          <t>['citizen_40']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>W268730327</t>
+          <t>W267151044</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -931,12 +931,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>['citizen_40', 'citizen_41', 'citizen_42', 'citizen_43']</t>
+          <t>['citizen_41', 'citizen_42', 'citizen_43', 'citizen_44']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>W268730233</t>
+          <t>W298414543</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -963,12 +963,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>['citizen_44', 'citizen_45']</t>
+          <t>['citizen_45', 'citizen_46']</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>W267149670</t>
+          <t>W268730466</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>['citizen_46', 'citizen_47', 'citizen_48', 'citizen_49']</t>
+          <t>['citizen_47', 'citizen_48', 'citizen_49', 'citizen_50']</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>W298414502</t>
+          <t>W268730548</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1027,17 +1027,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>['citizen_50', 'citizen_51']</t>
+          <t>['citizen_51', 'citizen_52']</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>W268730584</t>
+          <t>W267148066</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>building_house</t>
+          <t>building_apartments</t>
         </is>
       </c>
     </row>
@@ -1059,12 +1059,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>['citizen_52']</t>
+          <t>['citizen_53']</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>W267149444</t>
+          <t>W298414387</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1091,17 +1091,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>['citizen_53', 'citizen_54', 'citizen_55', 'citizen_56']</t>
+          <t>['citizen_54', 'citizen_55', 'citizen_56', 'citizen_57']</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>W268730012</t>
+          <t>W268730329</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>building_apartments</t>
+          <t>building_house</t>
         </is>
       </c>
     </row>
@@ -1123,12 +1123,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>['citizen_57', 'citizen_58']</t>
+          <t>['citizen_58', 'citizen_59']</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>W267152157</t>
+          <t>W267148085</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1155,12 +1155,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>['citizen_59', 'citizen_60', 'citizen_61', 'citizen_62']</t>
+          <t>['citizen_60', 'citizen_61', 'citizen_62', 'citizen_63']</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>W267149595</t>
+          <t>W298414796</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1187,12 +1187,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>['citizen_63', 'citizen_64']</t>
+          <t>['citizen_64', 'citizen_65']</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>W268730177</t>
+          <t>W267151512</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1219,12 +1219,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>['citizen_65']</t>
+          <t>['citizen_66']</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>W267151994</t>
+          <t>W267150785</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>['citizen_66', 'citizen_67', 'citizen_68', 'citizen_69']</t>
+          <t>['citizen_67', 'citizen_68', 'citizen_69', 'citizen_70']</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>W298414643</t>
+          <t>W268730171</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1283,12 +1283,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>['citizen_70', 'citizen_71', 'citizen_72', 'citizen_73', 'citizen_74', 'citizen_75']</t>
+          <t>['citizen_71', 'citizen_72', 'citizen_73', 'citizen_74', 'citizen_75', 'citizen_76']</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>W267151530</t>
+          <t>W268729960</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1315,12 +1315,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>['citizen_76', 'citizen_77']</t>
+          <t>['citizen_77', 'citizen_78']</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>W267150672</t>
+          <t>W267151516</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1347,12 +1347,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>['citizen_78', 'citizen_79', 'citizen_80', 'citizen_81']</t>
+          <t>['citizen_79', 'citizen_80', 'citizen_81', 'citizen_82']</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>W268729963</t>
+          <t>W268730329</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1379,12 +1379,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>['citizen_82']</t>
+          <t>['citizen_83']</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>W298413940</t>
+          <t>W267150241</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>['citizen_83', 'citizen_84', 'citizen_85', 'citizen_86']</t>
+          <t>['citizen_84', 'citizen_85', 'citizen_86', 'citizen_87']</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>W448331248</t>
+          <t>W267149886</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1443,12 +1443,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>['citizen_87', 'citizen_88']</t>
+          <t>['citizen_88', 'citizen_89']</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>W267152011</t>
+          <t>W298413902</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1475,12 +1475,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>['citizen_89', 'citizen_90', 'citizen_91', 'citizen_92']</t>
+          <t>['citizen_90', 'citizen_91', 'citizen_92', 'citizen_93']</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>W268730062</t>
+          <t>W267152157</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1507,12 +1507,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>['citizen_93']</t>
+          <t>['citizen_94']</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>W268730177</t>
+          <t>W268730329</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1539,12 +1539,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>['citizen_94', 'citizen_95', 'citizen_96', 'citizen_97']</t>
+          <t>['citizen_95', 'citizen_96', 'citizen_97', 'citizen_98']</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>W267151017</t>
+          <t>W448331296</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1571,12 +1571,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>['citizen_98', 'citizen_99']</t>
+          <t>['citizen_99', 'citizen_100']</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>W267152478</t>
+          <t>W267151975</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1603,17 +1603,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>['citizen_100', 'citizen_101', 'citizen_102', 'citizen_103']</t>
+          <t>['citizen_101', 'citizen_102', 'citizen_103', 'citizen_104']</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>W819563683</t>
+          <t>W298413650</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>building_apartments</t>
+          <t>building_house</t>
         </is>
       </c>
     </row>
@@ -1635,12 +1635,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>['citizen_104', 'citizen_105']</t>
+          <t>['citizen_105', 'citizen_106', 'citizen_107', 'citizen_108', 'citizen_109']</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>W268730498</t>
+          <t>W267148044</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1667,12 +1667,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>['citizen_106', 'citizen_107']</t>
+          <t>['citizen_110', 'citizen_111']</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>W268730379</t>
+          <t>W267150649</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1699,12 +1699,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>['citizen_108']</t>
+          <t>['citizen_112']</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>W268730565</t>
+          <t>W268730555</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1731,12 +1731,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>['citizen_109', 'citizen_110', 'citizen_111', 'citizen_112']</t>
+          <t>['citizen_113', 'citizen_114', 'citizen_115', 'citizen_116']</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>W298414010</t>
+          <t>W268730453</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1763,12 +1763,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>['citizen_113', 'citizen_114', 'citizen_115', 'citizen_116']</t>
+          <t>['citizen_117', 'citizen_118', 'citizen_119', 'citizen_120']</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>W267151039</t>
+          <t>W268730039</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1795,17 +1795,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>['citizen_117', 'citizen_118']</t>
+          <t>['citizen_121', 'citizen_122']</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>W298413595</t>
+          <t>W267148066</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>building_house</t>
+          <t>building_apartments</t>
         </is>
       </c>
     </row>
@@ -1827,12 +1827,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>['citizen_119']</t>
+          <t>['citizen_123']</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>W298414656</t>
+          <t>W268729994</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1859,17 +1859,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>['citizen_120', 'citizen_121', 'citizen_122', 'citizen_123']</t>
+          <t>['citizen_124', 'citizen_125', 'citizen_126', 'citizen_127']</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>W298413654</t>
+          <t>W268730099</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>building_apartments</t>
+          <t>building_house</t>
         </is>
       </c>
     </row>
@@ -1891,12 +1891,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>['citizen_124', 'citizen_125', 'citizen_126', 'citizen_127', 'citizen_128']</t>
+          <t>['citizen_128', 'citizen_129', 'citizen_130', 'citizen_131', 'citizen_132']</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>W298414572</t>
+          <t>W267152064</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -1923,12 +1923,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>['citizen_129', 'citizen_130']</t>
+          <t>['citizen_133', 'citizen_134']</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>W267149909</t>
+          <t>W298413609</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -1955,12 +1955,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>['citizen_131', 'citizen_132', 'citizen_133', 'citizen_134']</t>
+          <t>['citizen_135', 'citizen_136', 'citizen_137', 'citizen_138']</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>W267152209</t>
+          <t>W267151694</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -1987,17 +1987,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>['citizen_135']</t>
+          <t>['citizen_139']</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>W267151566</t>
+          <t>W298413703</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>building_apartments</t>
+          <t>building_dormitory</t>
         </is>
       </c>
     </row>
@@ -2019,12 +2019,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>['citizen_136', 'citizen_137', 'citizen_138', 'citizen_139']</t>
+          <t>['citizen_140', 'citizen_141', 'citizen_142', 'citizen_143']</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>W267151845</t>
+          <t>W268730559</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2051,17 +2051,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>['citizen_140', 'citizen_141']</t>
+          <t>['citizen_144', 'citizen_145']</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>W267152140</t>
+          <t>W267148457</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>building_house</t>
+          <t>building_apartments</t>
         </is>
       </c>
     </row>
@@ -2083,12 +2083,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>['citizen_142', 'citizen_143', 'citizen_144', 'citizen_145']</t>
+          <t>['citizen_146', 'citizen_147', 'citizen_148', 'citizen_149']</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>W268730531</t>
+          <t>W694333130</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2115,17 +2115,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>['citizen_146', 'citizen_147', 'citizen_148', 'citizen_149', 'citizen_150']</t>
+          <t>['citizen_150', 'citizen_151', 'citizen_152']</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>W267148066</t>
+          <t>W267150751</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>building_apartments</t>
+          <t>building_house</t>
         </is>
       </c>
     </row>
@@ -2147,12 +2147,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>['citizen_151', 'citizen_152', 'citizen_153']</t>
+          <t>['citizen_153', 'citizen_154', 'citizen_155']</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>W298413682</t>
+          <t>W298413596</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2179,12 +2179,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>['citizen_154', 'citizen_155', 'citizen_156']</t>
+          <t>['citizen_156', 'citizen_157', 'citizen_158']</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>W268729961</t>
+          <t>W819563671</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2211,17 +2211,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>['citizen_157']</t>
+          <t>['citizen_159']</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>W267152532</t>
+          <t>W460355003</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>building_house</t>
+          <t>building_apartments</t>
         </is>
       </c>
     </row>
@@ -2243,12 +2243,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>['citizen_158', 'citizen_159', 'citizen_160', 'citizen_161']</t>
+          <t>['citizen_160', 'citizen_161', 'citizen_162', 'citizen_163']</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>W298414545</t>
+          <t>W298413597</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2275,12 +2275,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>['citizen_162', 'citizen_163']</t>
+          <t>['citizen_164', 'citizen_165']</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>W268730476</t>
+          <t>W298413913</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2307,12 +2307,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>['citizen_164', 'citizen_165', 'citizen_166', 'citizen_167']</t>
+          <t>['citizen_166', 'citizen_167', 'citizen_168', 'citizen_169']</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>W268730021</t>
+          <t>W268729998</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2339,12 +2339,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>['citizen_168', 'citizen_169']</t>
+          <t>['citizen_170', 'citizen_171']</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>W267151556</t>
+          <t>W267149933</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2371,12 +2371,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>['citizen_170']</t>
+          <t>['citizen_172']</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>W267150582</t>
+          <t>W298413881</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2403,12 +2403,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>['citizen_171', 'citizen_172', 'citizen_173', 'citizen_174']</t>
+          <t>['citizen_173', 'citizen_174', 'citizen_175', 'citizen_176']</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>W268729951</t>
+          <t>W268730577</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2435,12 +2435,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>['citizen_175', 'citizen_176', 'citizen_177', 'citizen_178']</t>
+          <t>['citizen_177', 'citizen_178', 'citizen_179', 'citizen_180']</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>W298414466</t>
+          <t>W267150901</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2467,17 +2467,17 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>['citizen_179']</t>
+          <t>['citizen_181']</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>W298413686</t>
+          <t>W298414060</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>building_apartments</t>
+          <t>building_house</t>
         </is>
       </c>
     </row>
@@ -2499,12 +2499,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>['citizen_180', 'citizen_181']</t>
+          <t>['citizen_182', 'citizen_183']</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>W267151536</t>
+          <t>W267152003</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2531,12 +2531,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>['citizen_182', 'citizen_183', 'citizen_184', 'citizen_185']</t>
+          <t>['citizen_184', 'citizen_185', 'citizen_186', 'citizen_187']</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>W298414089</t>
+          <t>W298414515</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>['citizen_186', 'citizen_187', 'citizen_188', 'citizen_189', 'citizen_190', 'citizen_191']</t>
+          <t>['citizen_188', 'citizen_189', 'citizen_190', 'citizen_191', 'citizen_192']</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>W267150248</t>
+          <t>W267152534</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2595,12 +2595,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>['citizen_192', 'citizen_193']</t>
+          <t>['citizen_193', 'citizen_194']</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>W268730626</t>
+          <t>W694333098</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2627,12 +2627,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>['citizen_194', 'citizen_195', 'citizen_196', 'citizen_197']</t>
+          <t>['citizen_195', 'citizen_196', 'citizen_197', 'citizen_198']</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>W267150246</t>
+          <t>W298413621</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2659,12 +2659,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>['citizen_198']</t>
+          <t>['citizen_199']</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>W268730622</t>
+          <t>W267151070</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2691,12 +2691,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>['citizen_199', 'citizen_200', 'citizen_201', 'citizen_202']</t>
+          <t>['citizen_200', 'citizen_201', 'citizen_202', 'citizen_203']</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>W267152351</t>
+          <t>W268730541</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2723,12 +2723,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>['citizen_203', 'citizen_204']</t>
+          <t>['citizen_204', 'citizen_205']</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>W267150974</t>
+          <t>W298414402</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -2755,12 +2755,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>['citizen_205', 'citizen_206']</t>
+          <t>['citizen_206', 'citizen_207', 'citizen_208', 'citizen_209', 'citizen_210']</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>W268730475</t>
+          <t>W268730535</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -2787,12 +2787,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>['citizen_207', 'citizen_208', 'citizen_209', 'citizen_210']</t>
+          <t>['citizen_211', 'citizen_212', 'citizen_213', 'citizen_214']</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>W267150321</t>
+          <t>W267151729</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -2819,12 +2819,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>['citizen_211']</t>
+          <t>['citizen_215']</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>W268730276</t>
+          <t>W298413958</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -2851,12 +2851,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>['citizen_212', 'citizen_213', 'citizen_214', 'citizen_215']</t>
+          <t>['citizen_216', 'citizen_217', 'citizen_218', 'citizen_219']</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>W267151907</t>
+          <t>W268729950</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -2883,17 +2883,17 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>['citizen_216', 'citizen_217']</t>
+          <t>['citizen_220', 'citizen_221']</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>W267151286</t>
+          <t>W298413645</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>building_apartments</t>
+          <t>building_house</t>
         </is>
       </c>
     </row>
@@ -2915,17 +2915,17 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>['citizen_218', 'citizen_219', 'citizen_220', 'citizen_221']</t>
+          <t>['citizen_222', 'citizen_223', 'citizen_224', 'citizen_225']</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>W268729958</t>
+          <t>W115930029</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>building_house</t>
+          <t>building_apartments</t>
         </is>
       </c>
     </row>
@@ -2947,12 +2947,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>['citizen_222', 'citizen_223']</t>
+          <t>['citizen_226', 'citizen_227']</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>W268729965</t>
+          <t>W268730488</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -2979,12 +2979,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>['citizen_224']</t>
+          <t>['citizen_228']</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>W268730586</t>
+          <t>W267149129</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3011,12 +3011,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>['citizen_225', 'citizen_226', 'citizen_227', 'citizen_228']</t>
+          <t>['citizen_229', 'citizen_230', 'citizen_231', 'citizen_232']</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>W267149642</t>
+          <t>W267151727</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3043,17 +3043,17 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>['citizen_229', 'citizen_230', 'citizen_231', 'citizen_232']</t>
+          <t>['citizen_233', 'citizen_234', 'citizen_235', 'citizen_236']</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>W298413652</t>
+          <t>W819563696</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>building_apartments</t>
+          <t>building_house</t>
         </is>
       </c>
     </row>
@@ -3075,12 +3075,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>['citizen_233', 'citizen_234']</t>
+          <t>['citizen_237', 'citizen_238']</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>W268730461</t>
+          <t>W267151052</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3107,12 +3107,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>['citizen_235']</t>
+          <t>['citizen_239']</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>W268729971</t>
+          <t>W267152478</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3139,12 +3139,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>['citizen_236', 'citizen_237', 'citizen_238', 'citizen_239']</t>
+          <t>['citizen_240', 'citizen_241', 'citizen_242', 'citizen_243']</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>W298414407</t>
+          <t>W298414495</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3171,12 +3171,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>['citizen_240', 'citizen_241', 'citizen_242', 'citizen_243', 'citizen_244']</t>
+          <t>['citizen_244', 'citizen_245', 'citizen_246', 'citizen_247', 'citizen_248']</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>W268730123</t>
+          <t>W267150903</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3203,12 +3203,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>['citizen_245', 'citizen_246']</t>
+          <t>['citizen_249', 'citizen_250']</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>W819563682</t>
+          <t>W267151357</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3235,17 +3235,17 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>['citizen_247', 'citizen_248', 'citizen_249', 'citizen_250']</t>
+          <t>['citizen_251', 'citizen_252', 'citizen_253', 'citizen_254']</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>W298414347</t>
+          <t>W267150903</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>building_apartments</t>
+          <t>building_house</t>
         </is>
       </c>
     </row>
@@ -3267,17 +3267,17 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>['citizen_251', 'citizen_252', 'citizen_253']</t>
+          <t>['citizen_255', 'citizen_256', 'citizen_257', 'citizen_258']</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>W267150907</t>
+          <t>W298413713</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>building_house</t>
+          <t>building_apartments</t>
         </is>
       </c>
     </row>
@@ -3299,12 +3299,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>['citizen_254']</t>
+          <t>['citizen_259']</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>W268730194</t>
+          <t>W268730584</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -3331,12 +3331,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>['citizen_255', 'citizen_256', 'citizen_257', 'citizen_258']</t>
+          <t>['citizen_260', 'citizen_261', 'citizen_262', 'citizen_263']</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>W268730202</t>
+          <t>W448331285</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3363,12 +3363,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>['citizen_259', 'citizen_260']</t>
+          <t>['citizen_264', 'citizen_265']</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>W267149453</t>
+          <t>W267152064</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -3395,12 +3395,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>['citizen_261', 'citizen_262', 'citizen_263', 'citizen_264']</t>
+          <t>['citizen_266', 'citizen_267', 'citizen_268', 'citizen_269']</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>W268730437</t>
+          <t>W298413657</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3427,12 +3427,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>['citizen_265']</t>
+          <t>['citizen_270']</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>W267151053</t>
+          <t>W267149698</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3459,12 +3459,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>['citizen_266', 'citizen_267', 'citizen_268', 'citizen_269']</t>
+          <t>['citizen_271', 'citizen_272', 'citizen_273', 'citizen_274']</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>W267150926</t>
+          <t>W268730055</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3491,12 +3491,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>['citizen_270', 'citizen_271']</t>
+          <t>['citizen_275', 'citizen_276']</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>W268729965</t>
+          <t>W267149216</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -3523,12 +3523,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>['citizen_272', 'citizen_273', 'citizen_274', 'citizen_275']</t>
+          <t>['citizen_277', 'citizen_278', 'citizen_279', 'citizen_280']</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>W268730014</t>
+          <t>W267152487</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -3555,12 +3555,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>['citizen_276', 'citizen_277']</t>
+          <t>['citizen_281', 'citizen_282']</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>W268730401</t>
+          <t>W267149338</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -3587,17 +3587,17 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>['citizen_278']</t>
+          <t>['citizen_283']</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>W268730010</t>
+          <t>W268729985</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>building_apartments</t>
+          <t>building_house</t>
         </is>
       </c>
     </row>
@@ -3619,12 +3619,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>['citizen_279', 'citizen_280', 'citizen_281', 'citizen_282']</t>
+          <t>['citizen_284', 'citizen_285', 'citizen_286', 'citizen_287']</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>W267150951</t>
+          <t>W268730275</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -3651,12 +3651,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>['citizen_283', 'citizen_284', 'citizen_285', 'citizen_286']</t>
+          <t>['citizen_288', 'citizen_289', 'citizen_290', 'citizen_291']</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>W268730438</t>
+          <t>W268730626</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -3683,12 +3683,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>['citizen_287']</t>
+          <t>['citizen_292']</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>W268730477</t>
+          <t>W267149231</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -3715,12 +3715,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>['citizen_288', 'citizen_289']</t>
+          <t>['citizen_293', 'citizen_294']</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>W298413692</t>
+          <t>W298413615</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -3747,12 +3747,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>['citizen_290', 'citizen_291', 'citizen_292', 'citizen_293', 'citizen_294']</t>
+          <t>['citizen_295', 'citizen_296']</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>W298413684</t>
+          <t>W267151044</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -3779,12 +3779,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>['citizen_295', 'citizen_296', 'citizen_297']</t>
+          <t>['citizen_297', 'citizen_298', 'citizen_299']</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>W298414515</t>
+          <t>W268730511</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -3811,12 +3811,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>['citizen_298', 'citizen_299', 'citizen_300']</t>
+          <t>['citizen_300', 'citizen_301', 'citizen_302']</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>W268729957</t>
+          <t>W298413715</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -3843,17 +3843,17 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>['citizen_301', 'citizen_302', 'citizen_303', 'citizen_304']</t>
+          <t>['citizen_303', 'citizen_304', 'citizen_305', 'citizen_306']</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>W298413685</t>
+          <t>W267148595</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>building_house</t>
+          <t>building_apartments</t>
         </is>
       </c>
     </row>
@@ -3875,12 +3875,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>['citizen_305', 'citizen_306', 'citizen_307', 'citizen_308', 'citizen_309']</t>
+          <t>['citizen_307', 'citizen_308', 'citizen_309', 'citizen_310', 'citizen_311']</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>W267150251</t>
+          <t>W298413696</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -3907,12 +3907,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>['citizen_310', 'citizen_311']</t>
+          <t>['citizen_312', 'citizen_313']</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>W268730450</t>
+          <t>W268730011</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -3939,17 +3939,17 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>['citizen_312', 'citizen_313', 'citizen_314', 'citizen_315']</t>
+          <t>['citizen_314', 'citizen_315', 'citizen_316', 'citizen_317']</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>W267150974</t>
+          <t>W115930029</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>building_house</t>
+          <t>building_apartments</t>
         </is>
       </c>
     </row>
@@ -3971,12 +3971,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>['citizen_316']</t>
+          <t>['citizen_318']</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>W268730036</t>
+          <t>W267150138</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -4003,17 +4003,17 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>['citizen_317', 'citizen_318', 'citizen_319', 'citizen_320']</t>
+          <t>['citizen_319', 'citizen_320', 'citizen_321', 'citizen_322']</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>W115930034</t>
+          <t>W267148051</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>building_apartments</t>
+          <t>building_house</t>
         </is>
       </c>
     </row>
@@ -4035,17 +4035,17 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>['citizen_321', 'citizen_322']</t>
+          <t>['citizen_323', 'citizen_324']</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>W267148635</t>
+          <t>W115930057</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>building_house</t>
+          <t>building_apartments</t>
         </is>
       </c>
     </row>
@@ -4067,12 +4067,12 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>['citizen_323', 'citizen_324', 'citizen_325', 'citizen_326']</t>
+          <t>['citizen_325', 'citizen_326', 'citizen_327', 'citizen_328']</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>W268730463</t>
+          <t>W694333132</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -4099,12 +4099,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>['citizen_327']</t>
+          <t>['citizen_329']</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>W267151514</t>
+          <t>W267150936</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4131,12 +4131,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>['citizen_328', 'citizen_329', 'citizen_330', 'citizen_331']</t>
+          <t>['citizen_330', 'citizen_331', 'citizen_332', 'citizen_333']</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>W694333103</t>
+          <t>W267152190</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -4163,12 +4163,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>['citizen_332', 'citizen_333']</t>
+          <t>['citizen_334', 'citizen_335']</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>W267151516</t>
+          <t>W267151074</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -4195,12 +4195,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>['citizen_334', 'citizen_335', 'citizen_336', 'citizen_337']</t>
+          <t>['citizen_336', 'citizen_337', 'citizen_338', 'citizen_339']</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>W267149429</t>
+          <t>W267148552</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -4227,17 +4227,17 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>['citizen_338', 'citizen_339']</t>
+          <t>['citizen_340', 'citizen_341']</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>W268730016</t>
+          <t>W267151216</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>building_apartments</t>
+          <t>building_house</t>
         </is>
       </c>
     </row>
@@ -4259,17 +4259,17 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>['citizen_340']</t>
+          <t>['citizen_342']</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>W268730637</t>
+          <t>W267151756</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>building_house</t>
+          <t>building_apartments</t>
         </is>
       </c>
     </row>
@@ -4291,12 +4291,12 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>['citizen_341', 'citizen_342', 'citizen_343', 'citizen_344']</t>
+          <t>['citizen_343', 'citizen_344', 'citizen_345', 'citizen_346']</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>W694333105</t>
+          <t>W298414387</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -4323,12 +4323,12 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>['citizen_345', 'citizen_346']</t>
+          <t>['citizen_347', 'citizen_348']</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>W267152016</t>
+          <t>W448331250</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -4355,12 +4355,12 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>['citizen_347', 'citizen_348', 'citizen_349', 'citizen_350']</t>
+          <t>['citizen_349', 'citizen_350', 'citizen_351', 'citizen_352']</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>W268730036</t>
+          <t>W267149314</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -4377,27 +4377,27 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>f_arch_5</t>
+          <t>f_arch_0</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Ageing family</t>
+          <t>Unipersonal home</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>['citizen_351', 'citizen_352']</t>
+          <t>['citizen_353']</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>W298414333</t>
+          <t>W267150974</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>building_apartments</t>
+          <t>building_house</t>
         </is>
       </c>
     </row>
@@ -4409,22 +4409,22 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>f_arch_0</t>
+          <t>f_arch_1</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Unipersonal home</t>
+          <t>Egemonic family</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>['citizen_353']</t>
+          <t>['citizen_354', 'citizen_355', 'citizen_356', 'citizen_357']</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>W267150559</t>
+          <t>W298413594</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -4441,22 +4441,22 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>f_arch_1</t>
+          <t>f_arch_5</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Egemonic family</t>
+          <t>Ageing family</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>['citizen_354', 'citizen_355', 'citizen_356', 'citizen_357']</t>
+          <t>['citizen_358', 'citizen_359']</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>W267150421</t>
+          <t>W694333127</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -4483,12 +4483,12 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>['citizen_358', 'citizen_359', 'citizen_360', 'citizen_361', 'citizen_362']</t>
+          <t>['citizen_360', 'citizen_361', 'citizen_362', 'citizen_363', 'citizen_364']</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>W819563671</t>
+          <t>W267148874</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -4515,12 +4515,12 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>['citizen_363', 'citizen_364']</t>
+          <t>['citizen_365', 'citizen_366']</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>W267150396</t>
+          <t>W267151856</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -4547,12 +4547,12 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>['citizen_365', 'citizen_366', 'citizen_367', 'citizen_368']</t>
+          <t>['citizen_367', 'citizen_368', 'citizen_369', 'citizen_370']</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>W268730046</t>
+          <t>W267151187</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -4579,17 +4579,17 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>['citizen_369']</t>
+          <t>['citizen_371']</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>W267152108</t>
+          <t>W268730475</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>building_apartments</t>
+          <t>building_house</t>
         </is>
       </c>
     </row>
@@ -4611,12 +4611,12 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>['citizen_370', 'citizen_371', 'citizen_372', 'citizen_373']</t>
+          <t>['citizen_372', 'citizen_373', 'citizen_374', 'citizen_375']</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>W268730540</t>
+          <t>W267148952</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -4643,12 +4643,12 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>['citizen_374', 'citizen_375']</t>
+          <t>['citizen_376', 'citizen_377']</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>W267150901</t>
+          <t>W298413631</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -4675,12 +4675,12 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>['citizen_376', 'citizen_377', 'citizen_378', 'citizen_379']</t>
+          <t>['citizen_378', 'citizen_379', 'citizen_380', 'citizen_381']</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>W267150521</t>
+          <t>W268730241</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -4707,12 +4707,12 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>['citizen_380']</t>
+          <t>['citizen_382']</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>W267151147</t>
+          <t>W694333113</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -4739,12 +4739,12 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>['citizen_381', 'citizen_382', 'citizen_383', 'citizen_384']</t>
+          <t>['citizen_383', 'citizen_384', 'citizen_385', 'citizen_386']</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>W267151216</t>
+          <t>W694333098</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -4771,12 +4771,12 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>['citizen_385', 'citizen_386']</t>
+          <t>['citizen_387', 'citizen_388']</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>W267149999</t>
+          <t>W268729967</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -4803,12 +4803,12 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>['citizen_387', 'citizen_388', 'citizen_389', 'citizen_390']</t>
+          <t>['citizen_389', 'citizen_390', 'citizen_391', 'citizen_392']</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>W267150442</t>
+          <t>W267151933</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -4835,12 +4835,12 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>['citizen_391', 'citizen_392']</t>
+          <t>['citizen_393', 'citizen_394']</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>W694333113</t>
+          <t>W268730622</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -4867,12 +4867,12 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>['citizen_393']</t>
+          <t>['citizen_395']</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>W268730046</t>
+          <t>W298414559</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -4899,12 +4899,12 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>['citizen_394', 'citizen_395', 'citizen_396', 'citizen_397']</t>
+          <t>['citizen_396', 'citizen_397', 'citizen_398', 'citizen_399']</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>W298413839</t>
+          <t>W819563666</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -4931,12 +4931,12 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>['citizen_398', 'citizen_399', 'citizen_400', 'citizen_401']</t>
+          <t>['citizen_400', 'citizen_401', 'citizen_402', 'citizen_403']</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>W694333102</t>
+          <t>W268730126</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -4963,12 +4963,12 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>['citizen_402']</t>
+          <t>['citizen_404']</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>W267151067</t>
+          <t>W298414511</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -4995,17 +4995,17 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>['citizen_403', 'citizen_404', 'citizen_405', 'citizen_406']</t>
+          <t>['citizen_405', 'citizen_406', 'citizen_407', 'citizen_408']</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>W298413777</t>
+          <t>W267152536</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>building_house</t>
+          <t>building_apartments</t>
         </is>
       </c>
     </row>
@@ -5017,22 +5017,22 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>f_arch_5</t>
+          <t>f_arch_7</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Ageing family</t>
+          <t>DINK</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>['citizen_407', 'citizen_408']</t>
+          <t>['citizen_409', 'citizen_410']</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>W267149595</t>
+          <t>W268730546</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -5049,27 +5049,27 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>f_arch_7</t>
+          <t>f_arch_5</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>DINK</t>
+          <t>Ageing family</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>['citizen_409', 'citizen_410']</t>
+          <t>['citizen_411', 'citizen_412']</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>W268730009</t>
+          <t>W267149221</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>building_apartments</t>
+          <t>building_house</t>
         </is>
       </c>
     </row>
@@ -5091,12 +5091,12 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>['citizen_411']</t>
+          <t>['citizen_413']</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>W268730452</t>
+          <t>W267151975</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -5123,12 +5123,12 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>['citizen_412', 'citizen_413']</t>
+          <t>['citizen_414', 'citizen_415']</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>W268730493</t>
+          <t>W267151979</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -5155,17 +5155,17 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>['citizen_414']</t>
+          <t>['citizen_416']</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>W268730479</t>
+          <t>W268730016</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>building_house</t>
+          <t>building_apartments</t>
         </is>
       </c>
     </row>
@@ -5187,17 +5187,17 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>['citizen_415', 'citizen_416']</t>
+          <t>['citizen_417', 'citizen_418']</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>W819563666</t>
+          <t>W298413651</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>building_house</t>
+          <t>building_apartments</t>
         </is>
       </c>
     </row>
@@ -5209,22 +5209,22 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>f_arch_0</t>
+          <t>f_arch_5</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Unipersonal home</t>
+          <t>Ageing family</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>['citizen_417']</t>
+          <t>['citizen_419', 'citizen_420']</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>W267150442</t>
+          <t>W267151559</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -5251,12 +5251,12 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>['citizen_418']</t>
+          <t>['citizen_421']</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>W268730559</t>
+          <t>W268730527</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -5273,27 +5273,27 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>f_arch_7</t>
+          <t>f_arch_0</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>DINK</t>
+          <t>Unipersonal home</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>['citizen_419', 'citizen_420']</t>
+          <t>['citizen_422']</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>W267148066</t>
+          <t>W267151994</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>building_apartments</t>
+          <t>building_house</t>
         </is>
       </c>
     </row>
@@ -5305,22 +5305,22 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>f_arch_0</t>
+          <t>f_arch_7</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Unipersonal home</t>
+          <t>DINK</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>['citizen_421']</t>
+          <t>['citizen_423', 'citizen_424']</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>W268730170</t>
+          <t>W267150338</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -5347,12 +5347,12 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>['citizen_422']</t>
+          <t>['citizen_425']</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>W268730276</t>
+          <t>W268729983</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -5369,27 +5369,27 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>f_arch_7</t>
+          <t>f_arch_0</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>DINK</t>
+          <t>Unipersonal home</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>['citizen_423', 'citizen_424']</t>
+          <t>['citizen_426']</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>W267148449</t>
+          <t>W267151729</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>building_apartments</t>
+          <t>building_house</t>
         </is>
       </c>
     </row>
@@ -5401,22 +5401,22 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>f_arch_0</t>
+          <t>f_arch_7</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Unipersonal home</t>
+          <t>DINK</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>['citizen_425']</t>
+          <t>['citizen_427', 'citizen_428']</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>W267151220</t>
+          <t>W268730485</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -5443,17 +5443,17 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>['citizen_426']</t>
+          <t>['citizen_429']</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>W298414363</t>
+          <t>W267152422</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>building_apartments</t>
+          <t>building_house</t>
         </is>
       </c>
     </row>
@@ -5465,22 +5465,22 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>f_arch_7</t>
+          <t>f_arch_0</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>DINK</t>
+          <t>Unipersonal home</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>['citizen_427', 'citizen_428']</t>
+          <t>['citizen_430']</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>W267152018</t>
+          <t>W298413583</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -5497,27 +5497,27 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>f_arch_0</t>
+          <t>f_arch_7</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Unipersonal home</t>
+          <t>DINK</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>['citizen_429']</t>
+          <t>['citizen_431', 'citizen_432']</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>W298414581</t>
+          <t>W115930039</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>building_house</t>
+          <t>building_apartments</t>
         </is>
       </c>
     </row>
@@ -5539,12 +5539,12 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>['citizen_430']</t>
+          <t>['citizen_433']</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>W267149678</t>
+          <t>W267149454</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -5561,27 +5561,27 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>f_arch_7</t>
+          <t>f_arch_0</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>DINK</t>
+          <t>Unipersonal home</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>['citizen_431', 'citizen_432']</t>
+          <t>['citizen_434']</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>W298413643</t>
+          <t>W267148401</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>building_house</t>
+          <t>building_apartments</t>
         </is>
       </c>
     </row>
@@ -5593,27 +5593,27 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>f_arch_0</t>
+          <t>f_arch_7</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Unipersonal home</t>
+          <t>DINK</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>['citizen_433']</t>
+          <t>['citizen_435', 'citizen_436']</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>W267149330</t>
+          <t>W115930049</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>building_house</t>
+          <t>building_apartments</t>
         </is>
       </c>
     </row>
@@ -5635,17 +5635,17 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>['citizen_434']</t>
+          <t>['citizen_437']</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>W268730194</t>
+          <t>W115930032</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>building_house</t>
+          <t>building_apartments</t>
         </is>
       </c>
     </row>
@@ -5657,27 +5657,27 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>f_arch_7</t>
+          <t>f_arch_0</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>DINK</t>
+          <t>Unipersonal home</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>['citizen_435', 'citizen_436']</t>
+          <t>['citizen_438']</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>W298413652</t>
+          <t>W694333113</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>building_apartments</t>
+          <t>building_house</t>
         </is>
       </c>
     </row>
@@ -5689,22 +5689,22 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>f_arch_0</t>
+          <t>f_arch_7</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Unipersonal home</t>
+          <t>DINK</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>['citizen_437']</t>
+          <t>['citizen_439', 'citizen_440']</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>W267151720</t>
+          <t>W267149312</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -5731,12 +5731,12 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>['citizen_438']</t>
+          <t>['citizen_441']</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>W298413881</t>
+          <t>W268730539</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -5753,22 +5753,22 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>f_arch_7</t>
+          <t>f_arch_0</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>DINK</t>
+          <t>Unipersonal home</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>['citizen_439', 'citizen_440']</t>
+          <t>['citizen_442']</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>W267150416</t>
+          <t>W267151975</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -5785,27 +5785,27 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>f_arch_0</t>
+          <t>f_arch_7</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Unipersonal home</t>
+          <t>DINK</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>['citizen_441']</t>
+          <t>['citizen_443', 'citizen_444']</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>W298414561</t>
+          <t>W298413611</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>building_house</t>
+          <t>building_apartments</t>
         </is>
       </c>
     </row>
@@ -5827,12 +5827,12 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>['citizen_442']</t>
+          <t>['citizen_445']</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>W267150409</t>
+          <t>W298413884</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -5849,27 +5849,27 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>f_arch_7</t>
+          <t>f_arch_0</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>DINK</t>
+          <t>Unipersonal home</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>['citizen_443', 'citizen_444']</t>
+          <t>['citizen_446']</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>W267148085</t>
+          <t>W267148305</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>building_house</t>
+          <t>building_apartments</t>
         </is>
       </c>
     </row>
@@ -5891,12 +5891,12 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>['citizen_445']</t>
+          <t>['citizen_447']</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>W819563677</t>
+          <t>W267149338</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -5923,111 +5923,15 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>['citizen_446']</t>
+          <t>['citizen_448']</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>W267151950</t>
+          <t>W267149314</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
-        <is>
-          <t>building_house</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>family_171</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>f_arch_0</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>Unipersonal home</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>['citizen_447']</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>W267150587</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>building_house</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>family_172</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>f_arch_0</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>Unipersonal home</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>['citizen_448']</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>W298414495</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>building_house</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>family_173</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>f_arch_0</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>Unipersonal home</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>['citizen_449']</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>W298414495</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
         <is>
           <t>building_house</t>
         </is>

--- a/Data/Kanaleneiland/df_families.xlsx
+++ b/Data/Kanaleneiland/df_families.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F172"/>
+  <dimension ref="A1:F170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +488,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>W268729985</t>
+          <t>W694333108</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>W268730141</t>
+          <t>W267151187</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -552,7 +552,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>W267152500</t>
+          <t>W298413681</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -584,7 +584,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>W267152003</t>
+          <t>W694333135</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -611,12 +611,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['citizen_11', 'citizen_12', 'citizen_13', 'citizen_14', 'citizen_15']</t>
+          <t>['citizen_11', 'citizen_12', 'citizen_13']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>W268730507</t>
+          <t>W267151076</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -643,12 +643,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['citizen_16', 'citizen_17']</t>
+          <t>['citizen_14', 'citizen_15']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>W298413777</t>
+          <t>W448331238</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -675,17 +675,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['citizen_18', 'citizen_19', 'citizen_20', 'citizen_21', 'citizen_22']</t>
+          <t>['citizen_16', 'citizen_17', 'citizen_18', 'citizen_19', 'citizen_20']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>W268730219</t>
+          <t>W267151544</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>building_house</t>
+          <t>building_apartments</t>
         </is>
       </c>
     </row>
@@ -707,12 +707,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['citizen_23', 'citizen_24']</t>
+          <t>['citizen_21', 'citizen_22']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>W298413884</t>
+          <t>W267149921</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>['citizen_25', 'citizen_26', 'citizen_27', 'citizen_28']</t>
+          <t>['citizen_23', 'citizen_24', 'citizen_25', 'citizen_26']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>W267149063</t>
+          <t>W267150404</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>building_house</t>
+          <t>building_apartments</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>['citizen_29']</t>
+          <t>['citizen_27']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>W267148465</t>
+          <t>W267149215</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>building_apartments</t>
+          <t>building_house</t>
         </is>
       </c>
     </row>
@@ -803,12 +803,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>['citizen_30', 'citizen_31', 'citizen_32', 'citizen_33']</t>
+          <t>['citizen_28', 'citizen_29', 'citizen_30', 'citizen_31']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>W819563706</t>
+          <t>W267149250</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -835,17 +835,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>['citizen_34', 'citizen_35']</t>
+          <t>['citizen_32', 'citizen_33']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>W268730477</t>
+          <t>W298413647</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>building_house</t>
+          <t>building_apartments</t>
         </is>
       </c>
     </row>
@@ -867,12 +867,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>['citizen_36', 'citizen_37', 'citizen_38', 'citizen_39']</t>
+          <t>['citizen_34', 'citizen_35', 'citizen_36', 'citizen_37']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>W268730295</t>
+          <t>W267151845</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -899,12 +899,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>['citizen_40']</t>
+          <t>['citizen_38']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>W267151044</t>
+          <t>W268730639</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -931,12 +931,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>['citizen_41', 'citizen_42', 'citizen_43', 'citizen_44']</t>
+          <t>['citizen_39', 'citizen_40', 'citizen_41', 'citizen_42']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>W298414543</t>
+          <t>W268730571</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -963,17 +963,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>['citizen_45', 'citizen_46']</t>
+          <t>['citizen_43', 'citizen_44']</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>W268730466</t>
+          <t>W267152231</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>building_house</t>
+          <t>building_apartments</t>
         </is>
       </c>
     </row>
@@ -995,12 +995,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>['citizen_47', 'citizen_48', 'citizen_49', 'citizen_50']</t>
+          <t>['citizen_45', 'citizen_46', 'citizen_47', 'citizen_48']</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>W268730548</t>
+          <t>W268730436</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1027,12 +1027,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>['citizen_51', 'citizen_52']</t>
+          <t>['citizen_49', 'citizen_50']</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>W267148066</t>
+          <t>W268730413</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1059,17 +1059,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>['citizen_53']</t>
+          <t>['citizen_51']</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>W298414387</t>
+          <t>W115930024</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>building_house</t>
+          <t>building_apartments</t>
         </is>
       </c>
     </row>
@@ -1091,12 +1091,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>['citizen_54', 'citizen_55', 'citizen_56', 'citizen_57']</t>
+          <t>['citizen_52', 'citizen_53', 'citizen_54', 'citizen_55']</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>W268730329</t>
+          <t>W819563696</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1123,12 +1123,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>['citizen_58', 'citizen_59']</t>
+          <t>['citizen_56', 'citizen_57', 'citizen_58', 'citizen_59']</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>W267148085</t>
+          <t>W298413641</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>W298414796</t>
+          <t>W268730276</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1192,12 +1192,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>W267151512</t>
+          <t>W298413675</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>building_house</t>
+          <t>building_apartments</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>W267150785</t>
+          <t>W267152001</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1256,12 +1256,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>W268730171</t>
+          <t>W298413703</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>building_house</t>
+          <t>building_dormitory</t>
         </is>
       </c>
     </row>
@@ -1283,12 +1283,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>['citizen_71', 'citizen_72', 'citizen_73', 'citizen_74', 'citizen_75', 'citizen_76']</t>
+          <t>['citizen_71', 'citizen_72', 'citizen_73', 'citizen_74', 'citizen_75']</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>W268729960</t>
+          <t>W267151516</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1315,12 +1315,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>['citizen_77', 'citizen_78']</t>
+          <t>['citizen_76', 'citizen_77']</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>W267151516</t>
+          <t>W267148647</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1347,12 +1347,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>['citizen_79', 'citizen_80', 'citizen_81', 'citizen_82']</t>
+          <t>['citizen_78', 'citizen_79', 'citizen_80', 'citizen_81']</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>W268730329</t>
+          <t>W268730049</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1379,12 +1379,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>['citizen_83']</t>
+          <t>['citizen_82']</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>W267150241</t>
+          <t>W267150203</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>['citizen_84', 'citizen_85', 'citizen_86', 'citizen_87']</t>
+          <t>['citizen_83', 'citizen_84', 'citizen_85', 'citizen_86']</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>W267149886</t>
+          <t>W298414538</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1443,12 +1443,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>['citizen_88', 'citizen_89']</t>
+          <t>['citizen_87', 'citizen_88']</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>W298413902</t>
+          <t>W268730051</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1475,12 +1475,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>['citizen_90', 'citizen_91', 'citizen_92', 'citizen_93']</t>
+          <t>['citizen_89', 'citizen_90', 'citizen_91', 'citizen_92']</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>W267152157</t>
+          <t>W267152111</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1507,17 +1507,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>['citizen_94']</t>
+          <t>['citizen_93']</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>W268730329</t>
+          <t>W460355002</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>building_house</t>
+          <t>building_apartments</t>
         </is>
       </c>
     </row>
@@ -1539,12 +1539,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>['citizen_95', 'citizen_96', 'citizen_97', 'citizen_98']</t>
+          <t>['citizen_94', 'citizen_95', 'citizen_96', 'citizen_97']</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>W448331296</t>
+          <t>W268730028</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1571,12 +1571,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>['citizen_99', 'citizen_100']</t>
+          <t>['citizen_98', 'citizen_99']</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>W267151975</t>
+          <t>W298414599</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1603,12 +1603,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>['citizen_101', 'citizen_102', 'citizen_103', 'citizen_104']</t>
+          <t>['citizen_100', 'citizen_101', 'citizen_102', 'citizen_103']</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>W298413650</t>
+          <t>W298414402</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1635,17 +1635,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>['citizen_105', 'citizen_106', 'citizen_107', 'citizen_108', 'citizen_109']</t>
+          <t>['citizen_104', 'citizen_105', 'citizen_106', 'citizen_107', 'citizen_108', 'citizen_109']</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>W267148044</t>
+          <t>W819563707</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>building_house</t>
+          <t>building_apartments</t>
         </is>
       </c>
     </row>
@@ -1672,7 +1672,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>W267150649</t>
+          <t>W267152017</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>W268730555</t>
+          <t>W268730036</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>W268730453</t>
+          <t>W298413868</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>W268730039</t>
+          <t>W298414495</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1800,12 +1800,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>W267148066</t>
+          <t>W267150582</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>building_apartments</t>
+          <t>building_house</t>
         </is>
       </c>
     </row>
@@ -1832,7 +1832,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>W268729994</t>
+          <t>W268730511</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>W268730099</t>
+          <t>W268730568</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>W267152064</t>
+          <t>W268730624</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>W298413609</t>
+          <t>W268730295</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>W267151694</t>
+          <t>W298414706</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -1992,12 +1992,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>W298413703</t>
+          <t>W268730064</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>building_dormitory</t>
+          <t>building_house</t>
         </is>
       </c>
     </row>
@@ -2024,7 +2024,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>W268730559</t>
+          <t>W268729959</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2056,12 +2056,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>W267148457</t>
+          <t>W298413893</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>building_apartments</t>
+          <t>building_house</t>
         </is>
       </c>
     </row>
@@ -2088,7 +2088,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>W694333130</t>
+          <t>W267149240</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2115,12 +2115,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>['citizen_150', 'citizen_151', 'citizen_152']</t>
+          <t>['citizen_150', 'citizen_151', 'citizen_152', 'citizen_153']</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>W267150751</t>
+          <t>W268730474</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2147,17 +2147,17 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>['citizen_153', 'citizen_154', 'citizen_155']</t>
+          <t>['citizen_154', 'citizen_155', 'citizen_156']</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>W298413596</t>
+          <t>W267152225</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>building_house</t>
+          <t>building_apartments</t>
         </is>
       </c>
     </row>
@@ -2179,12 +2179,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>['citizen_156', 'citizen_157', 'citizen_158']</t>
+          <t>['citizen_157', 'citizen_158', 'citizen_159']</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>W819563671</t>
+          <t>W267151017</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2211,17 +2211,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>['citizen_159']</t>
+          <t>['citizen_160']</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>W460355003</t>
+          <t>W267152474</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>building_apartments</t>
+          <t>building_house</t>
         </is>
       </c>
     </row>
@@ -2243,12 +2243,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>['citizen_160', 'citizen_161', 'citizen_162', 'citizen_163']</t>
+          <t>['citizen_161', 'citizen_162', 'citizen_163', 'citizen_164']</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>W298413597</t>
+          <t>W819563706</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2275,12 +2275,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>['citizen_164', 'citizen_165']</t>
+          <t>['citizen_165', 'citizen_166']</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>W298413913</t>
+          <t>W298413579</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2307,12 +2307,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>['citizen_166', 'citizen_167', 'citizen_168', 'citizen_169']</t>
+          <t>['citizen_167', 'citizen_168', 'citizen_169', 'citizen_170']</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>W268729998</t>
+          <t>W298414471</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2339,12 +2339,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>['citizen_170', 'citizen_171']</t>
+          <t>['citizen_171', 'citizen_172']</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>W267149933</t>
+          <t>W267152246</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2371,12 +2371,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>['citizen_172']</t>
+          <t>['citizen_173']</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>W298413881</t>
+          <t>W268730463</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2403,12 +2403,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>['citizen_173', 'citizen_174', 'citizen_175', 'citizen_176']</t>
+          <t>['citizen_174', 'citizen_175', 'citizen_176', 'citizen_177']</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>W268730577</t>
+          <t>W267149413</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2435,12 +2435,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>['citizen_177', 'citizen_178', 'citizen_179', 'citizen_180']</t>
+          <t>['citizen_178', 'citizen_179', 'citizen_180', 'citizen_181']</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>W267150901</t>
+          <t>W268730485</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2467,12 +2467,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>['citizen_181']</t>
+          <t>['citizen_182']</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>W298414060</t>
+          <t>W298414561</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2499,17 +2499,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>['citizen_182', 'citizen_183']</t>
+          <t>['citizen_183', 'citizen_184']</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>W267152003</t>
+          <t>W115930051</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>building_house</t>
+          <t>building_apartments</t>
         </is>
       </c>
     </row>
@@ -2531,12 +2531,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>['citizen_184', 'citizen_185', 'citizen_186', 'citizen_187']</t>
+          <t>['citizen_185', 'citizen_186', 'citizen_187', 'citizen_188']</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>W298414515</t>
+          <t>W267148847</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>['citizen_188', 'citizen_189', 'citizen_190', 'citizen_191', 'citizen_192']</t>
+          <t>['citizen_189', 'citizen_190', 'citizen_191', 'citizen_192', 'citizen_193']</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>W267152534</t>
+          <t>W267152351</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2595,17 +2595,17 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>['citizen_193', 'citizen_194']</t>
+          <t>['citizen_194', 'citizen_195']</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>W694333098</t>
+          <t>W298414201</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>building_house</t>
+          <t>building_apartments</t>
         </is>
       </c>
     </row>
@@ -2627,12 +2627,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>['citizen_195', 'citizen_196', 'citizen_197', 'citizen_198']</t>
+          <t>['citizen_196', 'citizen_197', 'citizen_198', 'citizen_199']</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>W298413621</t>
+          <t>W267150046</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2659,12 +2659,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>['citizen_199']</t>
+          <t>['citizen_200']</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>W267151070</t>
+          <t>W267149670</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2691,12 +2691,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>['citizen_200', 'citizen_201', 'citizen_202', 'citizen_203']</t>
+          <t>['citizen_201', 'citizen_202', 'citizen_203', 'citizen_204']</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>W268730541</t>
+          <t>W268729982</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2723,12 +2723,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>['citizen_204', 'citizen_205']</t>
+          <t>['citizen_205', 'citizen_206']</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>W298414402</t>
+          <t>W298414385</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -2755,12 +2755,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>['citizen_206', 'citizen_207', 'citizen_208', 'citizen_209', 'citizen_210']</t>
+          <t>['citizen_207', 'citizen_208', 'citizen_209', 'citizen_210', 'citizen_211']</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>W268730535</t>
+          <t>W694333132</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -2787,12 +2787,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>['citizen_211', 'citizen_212', 'citizen_213', 'citizen_214']</t>
+          <t>['citizen_212', 'citizen_213', 'citizen_214', 'citizen_215']</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>W267151729</t>
+          <t>W298414643</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -2819,12 +2819,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>['citizen_215']</t>
+          <t>['citizen_216']</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>W298413958</t>
+          <t>W267148051</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -2851,12 +2851,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>['citizen_216', 'citizen_217', 'citizen_218', 'citizen_219']</t>
+          <t>['citizen_217', 'citizen_218', 'citizen_219', 'citizen_220']</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>W268729950</t>
+          <t>W268730000</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -2883,12 +2883,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>['citizen_220', 'citizen_221']</t>
+          <t>['citizen_221', 'citizen_222']</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>W298413645</t>
+          <t>W268730451</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -2915,17 +2915,17 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>['citizen_222', 'citizen_223', 'citizen_224', 'citizen_225']</t>
+          <t>['citizen_223', 'citizen_224', 'citizen_225', 'citizen_226']</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>W115930029</t>
+          <t>W298414392</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>building_apartments</t>
+          <t>building_house</t>
         </is>
       </c>
     </row>
@@ -2947,17 +2947,17 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>['citizen_226', 'citizen_227']</t>
+          <t>['citizen_227', 'citizen_228']</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>W268730488</t>
+          <t>W115930053</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>building_house</t>
+          <t>building_apartments</t>
         </is>
       </c>
     </row>
@@ -2979,12 +2979,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>['citizen_228']</t>
+          <t>['citizen_229']</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>W267149129</t>
+          <t>W298414457</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3011,12 +3011,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>['citizen_229', 'citizen_230', 'citizen_231', 'citizen_232']</t>
+          <t>['citizen_230', 'citizen_231', 'citizen_232', 'citizen_233']</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>W267151727</t>
+          <t>W267151234</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3043,12 +3043,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>['citizen_233', 'citizen_234', 'citizen_235', 'citizen_236']</t>
+          <t>['citizen_234', 'citizen_235', 'citizen_236', 'citizen_237']</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>W819563696</t>
+          <t>W268730565</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3075,12 +3075,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>['citizen_237', 'citizen_238']</t>
+          <t>['citizen_238', 'citizen_239']</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>W267151052</t>
+          <t>W298413597</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3107,12 +3107,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>['citizen_239']</t>
+          <t>['citizen_240']</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>W267152478</t>
+          <t>W267149620</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3139,12 +3139,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>['citizen_240', 'citizen_241', 'citizen_242', 'citizen_243']</t>
+          <t>['citizen_241', 'citizen_242', 'citizen_243', 'citizen_244']</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>W298414495</t>
+          <t>W268730032</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3171,12 +3171,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>['citizen_244', 'citizen_245', 'citizen_246', 'citizen_247', 'citizen_248']</t>
+          <t>['citizen_245', 'citizen_246', 'citizen_247', 'citizen_248', 'citizen_249', 'citizen_250']</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>W267150903</t>
+          <t>W268729969</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3203,12 +3203,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>['citizen_249', 'citizen_250']</t>
+          <t>['citizen_251', 'citizen_252']</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>W267151357</t>
+          <t>W268730539</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3235,12 +3235,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>['citizen_251', 'citizen_252', 'citizen_253', 'citizen_254']</t>
+          <t>['citizen_253', 'citizen_254', 'citizen_255', 'citizen_256']</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>W267150903</t>
+          <t>W267151431</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3267,17 +3267,17 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>['citizen_255', 'citizen_256', 'citizen_257', 'citizen_258']</t>
+          <t>['citizen_257', 'citizen_258', 'citizen_259', 'citizen_260']</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>W298413713</t>
+          <t>W298413884</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>building_apartments</t>
+          <t>building_house</t>
         </is>
       </c>
     </row>
@@ -3299,12 +3299,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>['citizen_259']</t>
+          <t>['citizen_261']</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>W268730584</t>
+          <t>W267151933</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -3331,12 +3331,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>['citizen_260', 'citizen_261', 'citizen_262', 'citizen_263']</t>
+          <t>['citizen_262', 'citizen_263', 'citizen_264', 'citizen_265']</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>W448331285</t>
+          <t>W267148199</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3363,12 +3363,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>['citizen_264', 'citizen_265']</t>
+          <t>['citizen_266', 'citizen_267']</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>W267152064</t>
+          <t>W448331244</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -3395,12 +3395,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>['citizen_266', 'citizen_267', 'citizen_268', 'citizen_269']</t>
+          <t>['citizen_268', 'citizen_269', 'citizen_270', 'citizen_271']</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>W298413657</t>
+          <t>W268730454</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3427,12 +3427,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>['citizen_270']</t>
+          <t>['citizen_272']</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>W267149698</t>
+          <t>W267150901</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3459,12 +3459,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>['citizen_271', 'citizen_272', 'citizen_273', 'citizen_274']</t>
+          <t>['citizen_273', 'citizen_274', 'citizen_275', 'citizen_276']</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>W268730055</t>
+          <t>W298414257</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3491,12 +3491,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>['citizen_275', 'citizen_276']</t>
+          <t>['citizen_277', 'citizen_278']</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>W267149216</t>
+          <t>W298414372</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -3523,12 +3523,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>['citizen_277', 'citizen_278', 'citizen_279', 'citizen_280']</t>
+          <t>['citizen_279', 'citizen_280', 'citizen_281', 'citizen_282']</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>W267152487</t>
+          <t>W267150444</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -3555,17 +3555,17 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>['citizen_281', 'citizen_282']</t>
+          <t>['citizen_283', 'citizen_284']</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>W267149338</t>
+          <t>W268730010</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>building_house</t>
+          <t>building_apartments</t>
         </is>
       </c>
     </row>
@@ -3587,12 +3587,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>['citizen_283']</t>
+          <t>['citizen_285']</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>W268729985</t>
+          <t>W267151555</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -3619,17 +3619,17 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>['citizen_284', 'citizen_285', 'citizen_286', 'citizen_287']</t>
+          <t>['citizen_286', 'citizen_287', 'citizen_288', 'citizen_289']</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>W268730275</t>
+          <t>W451301979</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>building_house</t>
+          <t>building_apartments</t>
         </is>
       </c>
     </row>
@@ -3651,12 +3651,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>['citizen_288', 'citizen_289', 'citizen_290', 'citizen_291']</t>
+          <t>['citizen_290', 'citizen_291', 'citizen_292', 'citizen_293']</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>W268730626</t>
+          <t>W267149977</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -3683,12 +3683,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>['citizen_292']</t>
+          <t>['citizen_294']</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>W267149231</t>
+          <t>W267152140</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -3715,12 +3715,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>['citizen_293', 'citizen_294']</t>
+          <t>['citizen_295', 'citizen_296']</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>W298413615</t>
+          <t>W268730061</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -3747,17 +3747,17 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>['citizen_295', 'citizen_296']</t>
+          <t>['citizen_297', 'citizen_298']</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>W267151044</t>
+          <t>W267148612</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>building_house</t>
+          <t>building_apartments</t>
         </is>
       </c>
     </row>
@@ -3779,12 +3779,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>['citizen_297', 'citizen_298', 'citizen_299']</t>
+          <t>['citizen_299', 'citizen_300', 'citizen_301']</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>W268730511</t>
+          <t>W298413598</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -3801,22 +3801,22 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>f_arch_3</t>
+          <t>f_arch_1</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Single parenthood (mother)</t>
+          <t>Egemonic family</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>['citizen_300', 'citizen_301', 'citizen_302']</t>
+          <t>['citizen_302', 'citizen_303', 'citizen_304', 'citizen_305']</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>W298413715</t>
+          <t>W267151852</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -3833,27 +3833,27 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>f_arch_1</t>
+          <t>f_arch_6</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Egemonic family</t>
+          <t>Large family</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>['citizen_303', 'citizen_304', 'citizen_305', 'citizen_306']</t>
+          <t>['citizen_306', 'citizen_307', 'citizen_308', 'citizen_309', 'citizen_310', 'citizen_311']</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>W267148595</t>
+          <t>W268730176</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>building_apartments</t>
+          <t>building_house</t>
         </is>
       </c>
     </row>
@@ -3865,22 +3865,22 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>f_arch_6</t>
+          <t>f_arch_7</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Large family</t>
+          <t>DINK</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>['citizen_307', 'citizen_308', 'citizen_309', 'citizen_310', 'citizen_311']</t>
+          <t>['citizen_312', 'citizen_313']</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>W298413696</t>
+          <t>W267148721</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -3897,27 +3897,27 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>f_arch_7</t>
+          <t>f_arch_3</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>DINK</t>
+          <t>Single parenthood (mother)</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>['citizen_312', 'citizen_313']</t>
+          <t>['citizen_314', 'citizen_315', 'citizen_316']</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>W268730011</t>
+          <t>W267151786</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>building_house</t>
+          <t>building_apartments</t>
         </is>
       </c>
     </row>
@@ -3939,17 +3939,17 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>['citizen_314', 'citizen_315', 'citizen_316', 'citizen_317']</t>
+          <t>['citizen_317', 'citizen_318', 'citizen_319', 'citizen_320']</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>W115930029</t>
+          <t>W819563670</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>building_apartments</t>
+          <t>building_house</t>
         </is>
       </c>
     </row>
@@ -3971,12 +3971,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>['citizen_318']</t>
+          <t>['citizen_321']</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>W267150138</t>
+          <t>W267151604</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -4003,17 +4003,17 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>['citizen_319', 'citizen_320', 'citizen_321', 'citizen_322']</t>
+          <t>['citizen_322', 'citizen_323', 'citizen_324', 'citizen_325']</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>W267148051</t>
+          <t>W840847136</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>building_house</t>
+          <t>building_apartments</t>
         </is>
       </c>
     </row>
@@ -4035,17 +4035,17 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>['citizen_323', 'citizen_324']</t>
+          <t>['citizen_326', 'citizen_327']</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>W115930057</t>
+          <t>W267150384</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>building_apartments</t>
+          <t>building_house</t>
         </is>
       </c>
     </row>
@@ -4067,17 +4067,17 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>['citizen_325', 'citizen_326', 'citizen_327', 'citizen_328']</t>
+          <t>['citizen_328', 'citizen_329', 'citizen_330', 'citizen_331']</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>W694333132</t>
+          <t>W267148388</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>building_house</t>
+          <t>building_apartments</t>
         </is>
       </c>
     </row>
@@ -4099,12 +4099,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>['citizen_329']</t>
+          <t>['citizen_332']</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>W267150936</t>
+          <t>W268730530</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4131,12 +4131,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>['citizen_330', 'citizen_331', 'citizen_332', 'citizen_333']</t>
+          <t>['citizen_333', 'citizen_334', 'citizen_335', 'citizen_336']</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>W267152190</t>
+          <t>W268730244</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -4163,12 +4163,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>['citizen_334', 'citizen_335']</t>
+          <t>['citizen_337', 'citizen_338']</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>W267151074</t>
+          <t>W268730242</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -4195,17 +4195,17 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>['citizen_336', 'citizen_337', 'citizen_338', 'citizen_339']</t>
+          <t>['citizen_339', 'citizen_340', 'citizen_341', 'citizen_342']</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>W267148552</t>
+          <t>W267148822</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>building_apartments</t>
+          <t>building_house</t>
         </is>
       </c>
     </row>
@@ -4227,12 +4227,12 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>['citizen_340', 'citizen_341']</t>
+          <t>['citizen_343', 'citizen_344']</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>W267151216</t>
+          <t>W267149454</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -4259,17 +4259,17 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>['citizen_342']</t>
+          <t>['citizen_345']</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>W267151756</t>
+          <t>W298413913</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>building_apartments</t>
+          <t>building_house</t>
         </is>
       </c>
     </row>
@@ -4291,12 +4291,12 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>['citizen_343', 'citizen_344', 'citizen_345', 'citizen_346']</t>
+          <t>['citizen_346', 'citizen_347', 'citizen_348', 'citizen_349']</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>W298414387</t>
+          <t>W267149216</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -4313,22 +4313,22 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>f_arch_4</t>
+          <t>f_arch_1</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Polinuclear home (youth)</t>
+          <t>Egemonic family</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>['citizen_347', 'citizen_348']</t>
+          <t>['citizen_350', 'citizen_351', 'citizen_352', 'citizen_353']</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>W448331250</t>
+          <t>W267149314</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -4345,22 +4345,22 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>f_arch_1</t>
+          <t>f_arch_0</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Egemonic family</t>
+          <t>Unipersonal home</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>['citizen_349', 'citizen_350', 'citizen_351', 'citizen_352']</t>
+          <t>['citizen_354']</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>W267149314</t>
+          <t>W267151780</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -4377,22 +4377,22 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>f_arch_0</t>
+          <t>f_arch_1</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Unipersonal home</t>
+          <t>Egemonic family</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>['citizen_353']</t>
+          <t>['citizen_355', 'citizen_356', 'citizen_357', 'citizen_358']</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>W267150974</t>
+          <t>W448331290</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -4409,22 +4409,22 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>f_arch_1</t>
+          <t>f_arch_5</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Egemonic family</t>
+          <t>Ageing family</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>['citizen_354', 'citizen_355', 'citizen_356', 'citizen_357']</t>
+          <t>['citizen_359', 'citizen_360']</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>W298413594</t>
+          <t>W268730297</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -4441,22 +4441,22 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>f_arch_5</t>
+          <t>f_arch_6</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Ageing family</t>
+          <t>Large family</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>['citizen_358', 'citizen_359']</t>
+          <t>['citizen_361', 'citizen_362', 'citizen_363', 'citizen_364', 'citizen_365']</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>W694333127</t>
+          <t>W267149487</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -4473,22 +4473,22 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>f_arch_6</t>
+          <t>f_arch_7</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Large family</t>
+          <t>DINK</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>['citizen_360', 'citizen_361', 'citizen_362', 'citizen_363', 'citizen_364']</t>
+          <t>['citizen_366', 'citizen_367']</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>W267148874</t>
+          <t>W268729967</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -4505,27 +4505,27 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>f_arch_7</t>
+          <t>f_arch_1</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>DINK</t>
+          <t>Egemonic family</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>['citizen_365', 'citizen_366']</t>
+          <t>['citizen_368', 'citizen_369', 'citizen_370', 'citizen_371']</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>W267151856</t>
+          <t>W267151574</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>building_house</t>
+          <t>building_apartments</t>
         </is>
       </c>
     </row>
@@ -4537,22 +4537,22 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>f_arch_1</t>
+          <t>f_arch_0</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Egemonic family</t>
+          <t>Unipersonal home</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>['citizen_367', 'citizen_368', 'citizen_369', 'citizen_370']</t>
+          <t>['citizen_372']</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>W267151187</t>
+          <t>W267149642</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -4569,22 +4569,22 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>f_arch_0</t>
+          <t>f_arch_1</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Unipersonal home</t>
+          <t>Egemonic family</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>['citizen_371']</t>
+          <t>['citizen_373', 'citizen_374', 'citizen_375', 'citizen_376']</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>W268730475</t>
+          <t>W267149940</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -4601,22 +4601,22 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>f_arch_1</t>
+          <t>f_arch_5</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Egemonic family</t>
+          <t>Ageing family</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>['citizen_372', 'citizen_373', 'citizen_374', 'citizen_375']</t>
+          <t>['citizen_377', 'citizen_378']</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>W267148952</t>
+          <t>W298414407</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -4633,22 +4633,22 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>f_arch_5</t>
+          <t>f_arch_1</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Ageing family</t>
+          <t>Egemonic family</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>['citizen_376', 'citizen_377']</t>
+          <t>['citizen_379', 'citizen_380', 'citizen_381', 'citizen_382']</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>W298413631</t>
+          <t>W267151714</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -4665,22 +4665,22 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>f_arch_1</t>
+          <t>f_arch_0</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Egemonic family</t>
+          <t>Unipersonal home</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>['citizen_378', 'citizen_379', 'citizen_380', 'citizen_381']</t>
+          <t>['citizen_383']</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>W268730241</t>
+          <t>W267152436</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -4697,22 +4697,22 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>f_arch_0</t>
+          <t>f_arch_1</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Unipersonal home</t>
+          <t>Egemonic family</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>['citizen_382']</t>
+          <t>['citizen_384', 'citizen_385', 'citizen_386', 'citizen_387']</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>W694333113</t>
+          <t>W268730046</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -4729,22 +4729,22 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>f_arch_1</t>
+          <t>f_arch_7</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Egemonic family</t>
+          <t>DINK</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>['citizen_383', 'citizen_384', 'citizen_385', 'citizen_386']</t>
+          <t>['citizen_388', 'citizen_389']</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>W694333098</t>
+          <t>W267151039</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -4761,22 +4761,22 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>f_arch_7</t>
+          <t>f_arch_1</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>DINK</t>
+          <t>Egemonic family</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>['citizen_387', 'citizen_388']</t>
+          <t>['citizen_390', 'citizen_391', 'citizen_392', 'citizen_393']</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>W268729967</t>
+          <t>W298413708</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -4793,22 +4793,22 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>f_arch_1</t>
+          <t>f_arch_5</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Egemonic family</t>
+          <t>Ageing family</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>['citizen_389', 'citizen_390', 'citizen_391', 'citizen_392']</t>
+          <t>['citizen_394', 'citizen_395']</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>W267151933</t>
+          <t>W267151115</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -4825,22 +4825,22 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>f_arch_5</t>
+          <t>f_arch_0</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Ageing family</t>
+          <t>Unipersonal home</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>['citizen_393', 'citizen_394']</t>
+          <t>['citizen_396']</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>W268730622</t>
+          <t>W267152112</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -4857,22 +4857,22 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>f_arch_0</t>
+          <t>f_arch_1</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Unipersonal home</t>
+          <t>Egemonic family</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>['citizen_395']</t>
+          <t>['citizen_397', 'citizen_398', 'citizen_399', 'citizen_400']</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>W298414559</t>
+          <t>W298413599</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -4899,12 +4899,12 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>['citizen_396', 'citizen_397', 'citizen_398', 'citizen_399']</t>
+          <t>['citizen_401', 'citizen_402', 'citizen_403', 'citizen_404']</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>W819563666</t>
+          <t>W267148768</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -4921,22 +4921,22 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>f_arch_1</t>
+          <t>f_arch_0</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Egemonic family</t>
+          <t>Unipersonal home</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>['citizen_400', 'citizen_401', 'citizen_402', 'citizen_403']</t>
+          <t>['citizen_405']</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>W268730126</t>
+          <t>W298414559</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -4953,22 +4953,22 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>f_arch_0</t>
+          <t>f_arch_1</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Unipersonal home</t>
+          <t>Egemonic family</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>['citizen_404']</t>
+          <t>['citizen_406', 'citizen_407', 'citizen_408', 'citizen_409']</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>W298414511</t>
+          <t>W267150385</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -4985,27 +4985,27 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>f_arch_1</t>
+          <t>f_arch_5</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Egemonic family</t>
+          <t>Ageing family</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>['citizen_405', 'citizen_406', 'citizen_407', 'citizen_408']</t>
+          <t>['citizen_410', 'citizen_411']</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>W267152536</t>
+          <t>W267150590</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>building_apartments</t>
+          <t>building_house</t>
         </is>
       </c>
     </row>
@@ -5027,12 +5027,12 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>['citizen_409', 'citizen_410']</t>
+          <t>['citizen_412', 'citizen_413']</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>W268730546</t>
+          <t>W267151057</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -5049,22 +5049,22 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>f_arch_5</t>
+          <t>f_arch_0</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Ageing family</t>
+          <t>Unipersonal home</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>['citizen_411', 'citizen_412']</t>
+          <t>['citizen_414']</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>W267149221</t>
+          <t>W267150628</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -5081,22 +5081,22 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>f_arch_0</t>
+          <t>f_arch_5</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Unipersonal home</t>
+          <t>Ageing family</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>['citizen_413']</t>
+          <t>['citizen_415', 'citizen_416']</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>W267151975</t>
+          <t>W267150846</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -5113,22 +5113,22 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>f_arch_5</t>
+          <t>f_arch_0</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Ageing family</t>
+          <t>Unipersonal home</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>['citizen_414', 'citizen_415']</t>
+          <t>['citizen_417']</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>W267151979</t>
+          <t>W268730505</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -5145,27 +5145,27 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>f_arch_0</t>
+          <t>f_arch_7</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Unipersonal home</t>
+          <t>DINK</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>['citizen_416']</t>
+          <t>['citizen_418', 'citizen_419']</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>W268730016</t>
+          <t>W298413704</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>building_apartments</t>
+          <t>building_house</t>
         </is>
       </c>
     </row>
@@ -5177,27 +5177,27 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>f_arch_7</t>
+          <t>f_arch_5</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>DINK</t>
+          <t>Ageing family</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>['citizen_417', 'citizen_418']</t>
+          <t>['citizen_420', 'citizen_421']</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>W298413651</t>
+          <t>W298413587</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>building_apartments</t>
+          <t>building_house</t>
         </is>
       </c>
     </row>
@@ -5209,22 +5209,22 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>f_arch_5</t>
+          <t>f_arch_0</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Ageing family</t>
+          <t>Unipersonal home</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>['citizen_419', 'citizen_420']</t>
+          <t>['citizen_422']</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>W267151559</t>
+          <t>W268730469</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -5251,12 +5251,12 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>['citizen_421']</t>
+          <t>['citizen_423']</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>W268730527</t>
+          <t>W694333105</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -5273,22 +5273,22 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>f_arch_0</t>
+          <t>f_arch_7</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Unipersonal home</t>
+          <t>DINK</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>['citizen_422']</t>
+          <t>['citizen_424', 'citizen_425']</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>W267151994</t>
+          <t>W268730547</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -5305,27 +5305,27 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>f_arch_7</t>
+          <t>f_arch_0</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>DINK</t>
+          <t>Unipersonal home</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>['citizen_423', 'citizen_424']</t>
+          <t>['citizen_426']</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>W267150338</t>
+          <t>W267150223</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>building_house</t>
+          <t>building_apartments</t>
         </is>
       </c>
     </row>
@@ -5347,12 +5347,12 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>['citizen_425']</t>
+          <t>['citizen_427']</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>W268729983</t>
+          <t>W298413608</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -5369,22 +5369,22 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>f_arch_0</t>
+          <t>f_arch_7</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Unipersonal home</t>
+          <t>DINK</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>['citizen_426']</t>
+          <t>['citizen_428', 'citizen_429']</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>W267151729</t>
+          <t>W298413592</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -5401,27 +5401,27 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>f_arch_7</t>
+          <t>f_arch_0</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>DINK</t>
+          <t>Unipersonal home</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>['citizen_427', 'citizen_428']</t>
+          <t>['citizen_430']</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>W268730485</t>
+          <t>W115930052</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>building_house</t>
+          <t>building_apartments</t>
         </is>
       </c>
     </row>
@@ -5443,12 +5443,12 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>['citizen_429']</t>
+          <t>['citizen_431']</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>W267152422</t>
+          <t>W267151569</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -5465,22 +5465,22 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>f_arch_0</t>
+          <t>f_arch_7</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Unipersonal home</t>
+          <t>DINK</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>['citizen_430']</t>
+          <t>['citizen_432', 'citizen_433']</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>W298413583</t>
+          <t>W267149677</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -5497,27 +5497,27 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>f_arch_7</t>
+          <t>f_arch_0</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>DINK</t>
+          <t>Unipersonal home</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>['citizen_431', 'citizen_432']</t>
+          <t>['citizen_434']</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>W115930039</t>
+          <t>W267151994</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>building_apartments</t>
+          <t>building_house</t>
         </is>
       </c>
     </row>
@@ -5539,17 +5539,17 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>['citizen_433']</t>
+          <t>['citizen_435']</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>W267149454</t>
+          <t>W267152086</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>building_house</t>
+          <t>building_apartments</t>
         </is>
       </c>
     </row>
@@ -5561,22 +5561,22 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>f_arch_0</t>
+          <t>f_arch_7</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Unipersonal home</t>
+          <t>DINK</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>['citizen_434']</t>
+          <t>['citizen_436', 'citizen_437']</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>W267148401</t>
+          <t>W268730012</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -5593,27 +5593,27 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>f_arch_7</t>
+          <t>f_arch_0</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>DINK</t>
+          <t>Unipersonal home</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>['citizen_435', 'citizen_436']</t>
+          <t>['citizen_438']</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>W115930049</t>
+          <t>W267150380</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>building_apartments</t>
+          <t>building_house</t>
         </is>
       </c>
     </row>
@@ -5635,17 +5635,17 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>['citizen_437']</t>
+          <t>['citizen_439']</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>W115930032</t>
+          <t>W267149547</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>building_apartments</t>
+          <t>building_house</t>
         </is>
       </c>
     </row>
@@ -5657,22 +5657,22 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>f_arch_0</t>
+          <t>f_arch_7</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Unipersonal home</t>
+          <t>DINK</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>['citizen_438']</t>
+          <t>['citizen_440', 'citizen_441']</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>W694333113</t>
+          <t>W298413596</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -5689,22 +5689,22 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>f_arch_7</t>
+          <t>f_arch_0</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>DINK</t>
+          <t>Unipersonal home</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>['citizen_439', 'citizen_440']</t>
+          <t>['citizen_442']</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>W267149312</t>
+          <t>W267150936</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -5731,17 +5731,17 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>['citizen_441']</t>
+          <t>['citizen_443']</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>W268730539</t>
+          <t>W115930044</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>building_house</t>
+          <t>building_apartments</t>
         </is>
       </c>
     </row>
@@ -5753,22 +5753,22 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>f_arch_0</t>
+          <t>f_arch_7</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Unipersonal home</t>
+          <t>DINK</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>['citizen_442']</t>
+          <t>['citizen_444', 'citizen_445']</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>W267151975</t>
+          <t>W268730490</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -5785,22 +5785,22 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>f_arch_7</t>
+          <t>f_arch_0</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>DINK</t>
+          <t>Unipersonal home</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>['citizen_443', 'citizen_444']</t>
+          <t>['citizen_446']</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>W298413611</t>
+          <t>W268730075</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -5827,12 +5827,12 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>['citizen_445']</t>
+          <t>['citizen_447']</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>W298413884</t>
+          <t>W267151694</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -5849,89 +5849,25 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>f_arch_0</t>
+          <t>f_arch_7</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Unipersonal home</t>
+          <t>DINK</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>['citizen_446']</t>
+          <t>['citizen_448', 'citizen_449']</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>W267148305</t>
+          <t>W298414645</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
-        <is>
-          <t>building_apartments</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>family_169</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>f_arch_0</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>Unipersonal home</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>['citizen_447']</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>W267149338</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>building_house</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>family_170</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>f_arch_0</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>Unipersonal home</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>['citizen_448']</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>W267149314</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
         <is>
           <t>building_house</t>
         </is>
